--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ram\classes\workspace\Hibernate\Sep_18_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A74DCDDB-8AD1-42EF-AFF8-0EF83AB9C1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB6242-F92A-41F8-B502-43EBC3436CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="21480" windowHeight="15585" activeTab="3" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
   </bookViews>
   <sheets>
     <sheet name="01_demo" sheetId="1" r:id="rId1"/>
     <sheet name="05_embedded" sheetId="2" r:id="rId2"/>
     <sheet name="07_collection" sheetId="3" r:id="rId3"/>
+    <sheet name="mapping" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>Employee</t>
   </si>
@@ -145,6 +146,140 @@
   </si>
   <si>
     <t>emp_projects</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>last_updated</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>One to One</t>
+  </si>
+  <si>
+    <t>One to Many /Many to One</t>
+  </si>
+  <si>
+    <t>Many to Many</t>
+  </si>
+  <si>
+    <t>@Entity
+class Employee{
+  String id;
+  Address address;
+}</t>
+  </si>
+  <si>
+    <t>@Entity
+class Address{
+ Long addressId;
+ String city;
+ String pincode;
+}</t>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>pinCode</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Many emp can work in one dept</t>
+  </si>
+  <si>
+    <t>@Entity
+class Employee{
+  String id;
+  Department dept;
+}</t>
+  </si>
+  <si>
+    <t>@Entity
+class Department{
+ Long deptId;
+ String departmentName;
+}</t>
+  </si>
+  <si>
+    <t>add_id</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>dname</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>@Entity
+class Employee{
+  String id;
+  List&lt;Project&gt;  projects;
+}</t>
+  </si>
+  <si>
+    <t>@Entity
+class Project{
+ Long projectId;
+ String projectName;
+ String client;
+}</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Passport</t>
   </si>
 </sst>
 </file>
@@ -160,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +305,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,15 +357,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -226,7 +367,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,38 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4C38C5-2700-41B3-A876-04E953A5CFEB}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -585,8 +735,14 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -594,7 +750,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -602,13 +758,57 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -625,7 +825,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="I4" sqref="I4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,26 +844,26 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -728,24 +928,24 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
@@ -792,18 +992,18 @@
       <c r="I14" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
@@ -906,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079645E7-3B9F-4F58-8ED6-BA7E3B0822CA}">
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M6"/>
     </sheetView>
   </sheetViews>
@@ -917,14 +1117,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -939,7 +1139,6 @@
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,4 +1249,485 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E33ECF9-A23C-4D6F-AFE7-F446A2DFB124}">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1">
+        <v>411041</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="1">
+        <v>41111</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="1">
+        <v>411041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1002</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="1">
+        <v>41111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="1">
+        <v>411041</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="1">
+        <v>41111</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ram\classes\workspace\Hibernate\Sep_18_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB6242-F92A-41F8-B502-43EBC3436CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C7894-BB71-4EDE-805C-8BA5BED52F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="21480" windowHeight="15585" activeTab="3" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
   </bookViews>
   <sheets>
     <sheet name="01_demo" sheetId="1" r:id="rId1"/>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E33ECF9-A23C-4D6F-AFE7-F446A2DFB124}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:I9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ram\classes\workspace\Hibernate\Sep_18_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C7894-BB71-4EDE-805C-8BA5BED52F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E21243-3772-424D-B8E1-809FFDD84FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
   </bookViews>
   <sheets>
     <sheet name="01_demo" sheetId="1" r:id="rId1"/>
     <sheet name="05_embedded" sheetId="2" r:id="rId2"/>
     <sheet name="07_collection" sheetId="3" r:id="rId3"/>
     <sheet name="mapping" sheetId="4" r:id="rId4"/>
+    <sheet name="OneToOne" sheetId="5" r:id="rId5"/>
+    <sheet name="ManyToOne Or ONe to Many" sheetId="6" r:id="rId6"/>
+    <sheet name="ManyToMany" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="83">
   <si>
     <t>Employee</t>
   </si>
@@ -281,12 +284,51 @@
   <si>
     <t>Passport</t>
   </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Single Directional
+Emp has an address</t>
+  </si>
+  <si>
+    <t>Bi-Directional
+Emp has an address
+Address has an Emp</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>mappedBy="address"</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>eid</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>inverse_column</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,8 +336,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -375,6 +431,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E33ECF9-A23C-4D6F-AFE7-F446A2DFB124}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,4 +1791,573 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD96E506-555D-4A7B-A441-22EFA21172ED}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1">
+        <v>411011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>1007</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="1">
+        <v>211011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="1">
+        <v>411011</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>1007</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="1">
+        <v>211011</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="1">
+        <v>7</v>
+      </c>
+      <c r="N26" s="1">
+        <v>7</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="1">
+        <v>411011</v>
+      </c>
+    </row>
+    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>1007</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>8</v>
+      </c>
+      <c r="N27" s="1">
+        <v>8</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="1">
+        <v>211011</v>
+      </c>
+    </row>
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="H10:P10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA92FB79-21D9-43DD-BF17-5921C785B457}">
+  <dimension ref="B3:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B899EF00-F54B-4A67-A906-96A8CC9DFDB5}">
+  <dimension ref="C3:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>1007</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>1007</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ram\classes\workspace\Hibernate\Sep_18_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E21243-3772-424D-B8E1-809FFDD84FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0334FE80-F953-4271-97DF-4ECC66660310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
   </bookViews>
   <sheets>
     <sheet name="01_demo" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="OneToOne" sheetId="5" r:id="rId5"/>
     <sheet name="ManyToOne Or ONe to Many" sheetId="6" r:id="rId6"/>
     <sheet name="ManyToMany" sheetId="7" r:id="rId7"/>
+    <sheet name="inheritance" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="107">
   <si>
     <t>Employee</t>
   </si>
@@ -322,6 +323,78 @@
   </si>
   <si>
     <t>inverse_column</t>
+  </si>
+  <si>
+    <t>SalesPerson</t>
+  </si>
+  <si>
+    <t>Manger</t>
+  </si>
+  <si>
+    <t>salesMade</t>
+  </si>
+  <si>
+    <t>comm</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>jessica</t>
+  </si>
+  <si>
+    <t>Emp</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>single table per heirachy</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>table per concrete class</t>
+  </si>
+  <si>
+    <t>table per subclass/ table by join</t>
+  </si>
+  <si>
+    <t>emp_type</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  stake</t>
+  </si>
+  <si>
+    <t>Ceo</t>
+  </si>
+  <si>
+    <t>HQL</t>
+  </si>
+  <si>
+    <t>JPQL</t>
   </si>
 </sst>
 </file>
@@ -413,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -425,6 +498,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,8 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,21 +842,21 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -905,26 +980,26 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -992,21 +1067,21 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
@@ -1053,18 +1128,18 @@
       <c r="I14" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
@@ -1178,14 +1253,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1578,10 +1653,10 @@
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1809,43 +1884,43 @@
   <sheetData>
     <row r="1" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1906,41 +1981,41 @@
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="H14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="N14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2012,25 +2087,25 @@
       </c>
     </row>
     <row r="25" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="H25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" s="10" t="s">
+      <c r="N25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2110,16 +2185,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2203,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B899EF00-F54B-4A67-A906-96A8CC9DFDB5}">
   <dimension ref="C3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2214,30 +2289,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2360,4 +2435,523 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB118006-F117-4D82-AF4B-4C27C838C218}">
+  <dimension ref="B3:AA44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="Q16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1">
+        <v>8000</v>
+      </c>
+      <c r="M18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="J30" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="J37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="E30:G30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ram\classes\workspace\Hibernate\Sep_18_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0334FE80-F953-4271-97DF-4ECC66660310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A010501-B993-4D3A-B2F8-EB00BD55CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{48355570-7748-4DC4-82AF-538498E23569}"/>
   </bookViews>
   <sheets>
     <sheet name="01_demo" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ManyToOne Or ONe to Many" sheetId="6" r:id="rId6"/>
     <sheet name="ManyToMany" sheetId="7" r:id="rId7"/>
     <sheet name="inheritance" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="106">
   <si>
     <t>Employee</t>
   </si>
@@ -361,18 +362,6 @@
     <t>Salesperson</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>table per concrete class</t>
   </si>
   <si>
@@ -395,6 +384,15 @@
   </si>
   <si>
     <t>JPQL</t>
+  </si>
+  <si>
+    <t>from Employee</t>
+  </si>
+  <si>
+    <t>select e.firstName from Employee e</t>
+  </si>
+  <si>
+    <t>select e.firstName, e.lastName from Employee e</t>
   </si>
 </sst>
 </file>
@@ -450,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -482,11 +480,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -500,6 +621,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,8 +632,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,21 +975,21 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -980,26 +1113,26 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1067,21 +1200,21 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
@@ -1128,18 +1261,18 @@
       <c r="I14" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
@@ -1253,14 +1386,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1653,10 +1786,10 @@
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1884,22 +2017,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="7" t="s">
@@ -1981,17 +2114,17 @@
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H14" s="7" t="s">
@@ -2289,15 +2422,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
@@ -2441,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB118006-F117-4D82-AF4B-4C27C838C218}">
   <dimension ref="B3:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -2453,7 +2586,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -2468,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>2</v>
@@ -2486,7 +2619,7 @@
         <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -2555,7 +2688,7 @@
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2582,7 +2715,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="1"/>
@@ -2611,12 +2744,12 @@
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
@@ -2644,27 +2777,27 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="J16" s="9" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="J16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="Q16" s="9" t="s">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="Q16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2774,26 +2907,26 @@
       <c r="T20" s="1"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>102</v>
+      <c r="B22" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="G23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
@@ -2821,22 +2954,22 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="J30" s="13" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="J30" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="9" t="s">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="9"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E31" s="7" t="s">
@@ -2923,33 +3056,295 @@
       <c r="P34" s="1"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="J37" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="J37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="E30:G30"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="G23:P23"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="E30:G30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254E8501-8E1D-43F7-80FC-54ACA7D90E30}">
+  <dimension ref="D3:T24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="Q3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="K4" s="23"/>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="K6" s="24"/>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="K7" s="24"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="K8" s="24"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="K10" s="24"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="K11" s="24"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="K12" s="24"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="K13" s="24"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="K14" s="24"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="K15" s="24"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="K16" s="24"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="K17" s="24"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="K18" s="24"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="K19" s="24"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="K20" s="24"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="K21" s="24"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="K22" s="24"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="K23" s="24"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="K24" s="25"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="Q3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
